--- a/Docs/Game_Index.xlsx
+++ b/Docs/Game_Index.xlsx
@@ -1,18 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphapo/Desktop/UnityProject/2024_01_A_TeamProject/Docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD7B554-26DE-F845-AD38-6775978E7A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="시트2" sheetId="2" r:id="rId5"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
+    <sheet name="시트2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>카드 번호</t>
   </si>
@@ -23,9 +45,6 @@
     <t>카드 설명</t>
   </si>
   <si>
-    <t>카드 데미지 계산식</t>
-  </si>
-  <si>
     <t>NormalAttack</t>
   </si>
   <si>
@@ -105,22 +124,350 @@
   </si>
   <si>
     <t>데미지 감소량 % = 100 / (100 + 최종 방어력)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레어도</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레어도</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>습득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>존재</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>골드</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>골드</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>골드</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계수</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -129,49 +476,67 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -361,25 +726,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="30.0"/>
-    <col customWidth="1" min="3" max="3" width="15.5"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -389,224 +759,507 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.25"/>
-    <col customWidth="1" min="2" max="2" width="25.63"/>
-    <col customWidth="1" min="3" max="3" width="34.0"/>
-    <col customWidth="1" min="4" max="4" width="28.38"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D6" si="0">CONCATENATE(RIGHT(B2,LEN(B2) - (FIND(" ",B2)))," +")</f>
+        <v>체력 +</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D6" si="1">CONCATENATE(RIGHT(B2,LEN(B2) - (FIND(" ",B2)))," +")</f>
-        <v>체력 +</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>공격력 +</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>공격력 +</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>방어력 +</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>방어력 +</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>피명타 확률 +</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>피명타 확률 +</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>치명타 피해 +</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>치명타 피해 +</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -616,6 +1269,7 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>